--- a/miembros_red.xlsx
+++ b/miembros_red.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torrejonvalenzuela/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torrejonvalenzuela/Documents/webloca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E974ABB5-80E0-8B43-A724-99531FB961BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBB8428-DF41-2041-B71E-BE24FD88B65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20240" yWindow="740" windowWidth="10000" windowHeight="18900" xr2:uid="{734894A7-B328-3D4F-8496-B0E3FF16B100}"/>
+    <workbookView xWindow="13640" yWindow="680" windowWidth="16600" windowHeight="17740" xr2:uid="{734894A7-B328-3D4F-8496-B0E3FF16B100}"/>
   </bookViews>
   <sheets>
     <sheet name="miembros_red" sheetId="1" r:id="rId1"/>
@@ -694,9 +694,6 @@
     <t>Javier Martin-Campo</t>
   </si>
   <si>
-    <t>Bibiana Granada</t>
-  </si>
-  <si>
     <t>Javier León</t>
   </si>
   <si>
@@ -1088,6 +1085,9 @@
   </si>
   <si>
     <t>Universidad de Szeged</t>
+  </si>
+  <si>
+    <t>Bibiana Granda Chico</t>
   </si>
 </sst>
 </file>
@@ -1976,13 +1976,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14F6FC4-C121-4B45-BE39-F90CE92C4CAD}">
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2478,16 +2478,16 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B37" t="s">
         <v>110</v>
       </c>
       <c r="C37" t="s">
+        <v>247</v>
+      </c>
+      <c r="D37" t="s">
         <v>248</v>
-      </c>
-      <c r="D37" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2984,13 +2984,13 @@
         <v>218</v>
       </c>
       <c r="B74" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" t="s">
         <v>227</v>
       </c>
-      <c r="C74" t="s">
-        <v>228</v>
-      </c>
       <c r="D74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2998,13 +2998,13 @@
         <v>219</v>
       </c>
       <c r="B75" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C75" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D75" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -3012,13 +3012,13 @@
         <v>220</v>
       </c>
       <c r="B76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C76" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D76" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -3026,13 +3026,13 @@
         <v>221</v>
       </c>
       <c r="B77" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C77" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D77" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -3040,7 +3040,7 @@
         <v>222</v>
       </c>
       <c r="B78" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -3048,495 +3048,495 @@
         <v>223</v>
       </c>
       <c r="B79" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>224</v>
+        <v>355</v>
       </c>
       <c r="B80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C80" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C81" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>225</v>
+      </c>
+      <c r="B82" t="s">
         <v>226</v>
       </c>
-      <c r="B82" t="s">
-        <v>227</v>
-      </c>
       <c r="C82" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B83" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>244</v>
+      </c>
+      <c r="B84" t="s">
         <v>245</v>
-      </c>
-      <c r="B84" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B85" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C85" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D85" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B86" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C86" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D86" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B87" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B88" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B89" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C89" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D89" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B90" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C90" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D90" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B91" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>268</v>
+      </c>
+      <c r="B92" t="s">
+        <v>271</v>
+      </c>
+      <c r="C92" t="s">
+        <v>270</v>
+      </c>
+      <c r="D92" t="s">
         <v>269</v>
-      </c>
-      <c r="B92" t="s">
-        <v>272</v>
-      </c>
-      <c r="C92" t="s">
-        <v>271</v>
-      </c>
-      <c r="D92" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B93" t="s">
+        <v>272</v>
+      </c>
+      <c r="C93" t="s">
+        <v>276</v>
+      </c>
+      <c r="D93" t="s">
         <v>273</v>
-      </c>
-      <c r="C93" t="s">
-        <v>277</v>
-      </c>
-      <c r="D93" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B94" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C94" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D94" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B95" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D95" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>281</v>
+      </c>
+      <c r="B96" t="s">
+        <v>285</v>
+      </c>
+      <c r="C96" t="s">
+        <v>283</v>
+      </c>
+      <c r="D96" t="s">
         <v>282</v>
-      </c>
-      <c r="B96" t="s">
-        <v>286</v>
-      </c>
-      <c r="C96" t="s">
-        <v>284</v>
-      </c>
-      <c r="D96" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>284</v>
+      </c>
+      <c r="B97" t="s">
         <v>285</v>
-      </c>
-      <c r="B97" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>287</v>
+      </c>
+      <c r="B98" t="s">
+        <v>286</v>
+      </c>
+      <c r="D98" t="s">
         <v>288</v>
-      </c>
-      <c r="B98" t="s">
-        <v>287</v>
-      </c>
-      <c r="D98" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B99" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C99" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D99" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B100" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C100" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D100" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B101" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C101" t="s">
+        <v>306</v>
+      </c>
+      <c r="D101" t="s">
         <v>307</v>
-      </c>
-      <c r="D101" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B102" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C102" t="s">
+        <v>315</v>
+      </c>
+      <c r="D102" t="s">
         <v>316</v>
-      </c>
-      <c r="D102" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B103" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C103" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D103" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B104" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C104" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D104" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B105" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C105" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D105" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B106" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C106" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D106" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B107" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C107" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D107" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B108" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D108" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B109" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C109" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D109" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B110" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C110" t="s">
+        <v>331</v>
+      </c>
+      <c r="D110" t="s">
         <v>332</v>
-      </c>
-      <c r="D110" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>333</v>
+      </c>
+      <c r="B111" t="s">
+        <v>336</v>
+      </c>
+      <c r="C111" t="s">
+        <v>335</v>
+      </c>
+      <c r="D111" t="s">
         <v>334</v>
-      </c>
-      <c r="B111" t="s">
-        <v>337</v>
-      </c>
-      <c r="C111" t="s">
-        <v>336</v>
-      </c>
-      <c r="D111" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>337</v>
+      </c>
+      <c r="B112" t="s">
+        <v>336</v>
+      </c>
+      <c r="C112" t="s">
         <v>338</v>
       </c>
-      <c r="B112" t="s">
-        <v>337</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>339</v>
-      </c>
-      <c r="D112" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B113" t="s">
+        <v>342</v>
+      </c>
+      <c r="C113" t="s">
         <v>343</v>
       </c>
-      <c r="C113" t="s">
-        <v>344</v>
-      </c>
       <c r="D113" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>341</v>
+      </c>
+      <c r="B114" t="s">
         <v>342</v>
       </c>
-      <c r="B114" t="s">
-        <v>343</v>
-      </c>
       <c r="C114" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D114" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B115" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C115" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D115" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B116" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C116" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D116" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
